--- a/table_C.xlsx
+++ b/table_C.xlsx
@@ -404,13 +404,13 @@
         <v>3786959.876</v>
       </c>
       <c r="D2" t="n">
-        <v>495552.1749999999</v>
+        <v>476063.004</v>
       </c>
       <c r="E2" t="n">
-        <v>2764482.472</v>
+        <v>3623029.524</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>71264.36096959497</v>
       </c>
     </row>
     <row r="3">
@@ -424,13 +424,13 @@
         <v>1832535.163000001</v>
       </c>
       <c r="D3" t="n">
-        <v>56115.8</v>
+        <v>528436.5149999999</v>
       </c>
       <c r="E3" t="n">
-        <v>259405.2</v>
+        <v>1424324.143000001</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>27687.36844310532</v>
       </c>
     </row>
     <row r="4">
@@ -444,13 +444,13 @@
         <v>4589439.664000001</v>
       </c>
       <c r="D4" t="n">
-        <v>3137.519</v>
+        <v>130542.764</v>
       </c>
       <c r="E4" t="n">
-        <v>14754.6</v>
+        <v>652880.711</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>83602.34999309393</v>
       </c>
     </row>
     <row r="5">
@@ -464,10 +464,10 @@
         <v>4037228.447000008</v>
       </c>
       <c r="D5" t="n">
-        <v>39974.75</v>
+        <v>87157.603</v>
       </c>
       <c r="E5" t="n">
-        <v>91236.22600000001</v>
+        <v>314165.279</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -606,13 +606,13 @@
         <v>14338463.75000001</v>
       </c>
       <c r="D12" t="n">
-        <v>594778.2439999999</v>
+        <v>1222197.886</v>
       </c>
       <c r="E12" t="n">
-        <v>3129876.498</v>
+        <v>6014397.657000001</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>182554.0794057942</v>
       </c>
     </row>
   </sheetData>
